--- a/parkingapp/static/data.xlsx
+++ b/parkingapp/static/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,15 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>change</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>code</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>secret</t>
         </is>
@@ -488,11 +493,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;django.db.models.base.ModelState object at 0x114c2d1c0&gt;</t>
+          <t>&lt;django.db.models.base.ModelState object at 0x11d3c9490&gt;</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>20.581041</v>
@@ -506,23 +511,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3753001</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>A_SLKlH:I7$,B_Ia$VSF/:1Vs%00B@Gi!%-"`)V&gt;G3'Z^Kq&gt;gDK$uRgl'pQ1{|;fip.!orh$o}/bGrsZWtw'M6,s0k^!sN@pX&lt;be</t>
-        </is>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/parkingapp/static/data.xlsx
+++ b/parkingapp/static/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;django.db.models.base.ModelState object at 0x11d3c9490&gt;</t>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1922e0&gt;</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -518,6 +518,5946 @@
       </c>
       <c r="H2" t="n">
         <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1923a0&gt;</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20.58043</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.704388</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Калининград, улица Вишневая 10</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c192460&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20.518635</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54.709595</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Московский, 93</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>49</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c192520&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.501486</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.72085</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Гаражная, 20</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1925e0&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.539709</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54.717808</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Юбилейная, 2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>51</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1926a0&gt;</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.511044</v>
+      </c>
+      <c r="D7" t="n">
+        <v>54.711619</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Шевченко, 11А</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>42</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c192ca0&gt;</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.496015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>54.719565</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Мира, 7А</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>43</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1921f0&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.513218</v>
+      </c>
+      <c r="D9" t="n">
+        <v>54.725389</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Госпитальная, 16А</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c086d90&gt;</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.489601</v>
+      </c>
+      <c r="D10" t="n">
+        <v>54.720376</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Грекова, 11</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0869d0&gt;</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.510137</v>
+      </c>
+      <c r="D11" t="n">
+        <v>54.710162</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Старш. Дадаева, 63Б</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>95</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c086b20&gt;</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.515653</v>
+      </c>
+      <c r="D12" t="n">
+        <v>54.722316</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 98</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c086310&gt;</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20.521537</v>
+      </c>
+      <c r="D13" t="n">
+        <v>54.709725</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Московский, 97</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0864f0&gt;</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.519318</v>
+      </c>
+      <c r="D14" t="n">
+        <v>54.695643</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Калинина, 115</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>127</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0860d0&gt;</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>29</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20.494111</v>
+      </c>
+      <c r="D15" t="n">
+        <v>54.720621</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Грекова, 2А</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c086640&gt;</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20.48953</v>
+      </c>
+      <c r="D16" t="n">
+        <v>54.720116</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Мира, 20А</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>17</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c086580&gt;</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20.489601</v>
+      </c>
+      <c r="D17" t="n">
+        <v>54.720376</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Грекова, 11</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>80</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c086430&gt;</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>33</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20.515653</v>
+      </c>
+      <c r="D18" t="n">
+        <v>54.722316</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 98</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>40</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c086730&gt;</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>20.503427</v>
+      </c>
+      <c r="D19" t="n">
+        <v>54.712175</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Больничная, 30</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c086520&gt;</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>35</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20.505852</v>
+      </c>
+      <c r="D20" t="n">
+        <v>54.708227</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Калининград, ул. В. Гюго, 1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>110</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c086280&gt;</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20.49977</v>
+      </c>
+      <c r="D21" t="n">
+        <v>54.720834</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Калининград, пл. Победы, 4В</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>139</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0863a0&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>37</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20.513317</v>
+      </c>
+      <c r="D22" t="n">
+        <v>54.726694</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ген.-лейт. Озерова, 63</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>140</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a79a0&gt;</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>38</v>
+      </c>
+      <c r="C23" t="n">
+        <v>20.523019</v>
+      </c>
+      <c r="D23" t="n">
+        <v>54.705346</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ген. Павлова, 6</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>142</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a7c70&gt;</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>39</v>
+      </c>
+      <c r="C24" t="n">
+        <v>20.503552</v>
+      </c>
+      <c r="D24" t="n">
+        <v>54.714386</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Барнаульская, 3</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a7820&gt;</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>40</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20.49977</v>
+      </c>
+      <c r="D25" t="n">
+        <v>54.721214</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Калининград, пл. Победы, 4Б</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>55</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a74c0&gt;</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>41</v>
+      </c>
+      <c r="C26" t="n">
+        <v>20.499043</v>
+      </c>
+      <c r="D26" t="n">
+        <v>54.71864</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Гвардейский, 3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>30</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a7fd0&gt;</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>42</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20.509481</v>
+      </c>
+      <c r="D27" t="n">
+        <v>54.718863</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Рокоссовского, 20А</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a7f10&gt;</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>43</v>
+      </c>
+      <c r="C28" t="n">
+        <v>20.501486</v>
+      </c>
+      <c r="D28" t="n">
+        <v>54.72085</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Гаражная, 18</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>30</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a7640&gt;</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>44</v>
+      </c>
+      <c r="C29" t="n">
+        <v>20.506391</v>
+      </c>
+      <c r="D29" t="n">
+        <v>54.712919</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Ленинский, 26Б</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>31</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a7580&gt;</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>45</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20.498378</v>
+      </c>
+      <c r="D30" t="n">
+        <v>54.720683</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Советский, 1</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a7e50&gt;</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>46</v>
+      </c>
+      <c r="C31" t="n">
+        <v>20.49977</v>
+      </c>
+      <c r="D31" t="n">
+        <v>54.721214</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Калининград, пл. Победы, 4Б</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>33</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a7730&gt;</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>47</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20.503867</v>
+      </c>
+      <c r="D32" t="n">
+        <v>54.720506</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Калининград, пл. Победы, 2, корп. 3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>34</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a77f0&gt;</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>48</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20.457451</v>
+      </c>
+      <c r="D33" t="n">
+        <v>54.714495</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Победы, 42</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>35</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a7130&gt;</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>49</v>
+      </c>
+      <c r="C34" t="n">
+        <v>20.504567</v>
+      </c>
+      <c r="D34" t="n">
+        <v>54.714432</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Ленинский, 14</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>24</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1a7a30&gt;</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>50</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20.523764</v>
+      </c>
+      <c r="D35" t="n">
+        <v>54.724255</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Корабельная, 1В</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>25</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2f040&gt;</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>51</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20.50552</v>
+      </c>
+      <c r="D36" t="n">
+        <v>54.713824</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Ленинский, 18</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2f0a0&gt;</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>52</v>
+      </c>
+      <c r="C37" t="n">
+        <v>20.496015</v>
+      </c>
+      <c r="D37" t="n">
+        <v>54.720678</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ушакова, 2</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>21</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2fa90&gt;</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>53</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20.492171</v>
+      </c>
+      <c r="D38" t="n">
+        <v>54.736265</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Гайдара, 8</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>110</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2fbe0&gt;</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>54</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20.530295</v>
+      </c>
+      <c r="D39" t="n">
+        <v>54.712758</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Фрунзе, 56А</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>15</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2f2e0&gt;</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>55</v>
+      </c>
+      <c r="C40" t="n">
+        <v>20.498845</v>
+      </c>
+      <c r="D40" t="n">
+        <v>54.694472</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Железнодорожная, 13</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>65</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2fcd0&gt;</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>56</v>
+      </c>
+      <c r="C41" t="n">
+        <v>20.497282</v>
+      </c>
+      <c r="D41" t="n">
+        <v>54.695299</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Железнодорожная, 25</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>60</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2feb0&gt;</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>57</v>
+      </c>
+      <c r="C42" t="n">
+        <v>20.500741</v>
+      </c>
+      <c r="D42" t="n">
+        <v>54.693785</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Железнодорожная, 7В</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>61</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2f9d0&gt;</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>59</v>
+      </c>
+      <c r="C43" t="n">
+        <v>20.504352</v>
+      </c>
+      <c r="D43" t="n">
+        <v>54.70959</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Московский, 48</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>25</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2fe20&gt;</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>60</v>
+      </c>
+      <c r="C44" t="n">
+        <v>20.505394</v>
+      </c>
+      <c r="D44" t="n">
+        <v>54.723502</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Юношеская, 16</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>32</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2f3d0&gt;</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>61</v>
+      </c>
+      <c r="C45" t="n">
+        <v>20.513299</v>
+      </c>
+      <c r="D45" t="n">
+        <v>54.725545</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ген.-лейт. Озерова, 40</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2fa00&gt;</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>62</v>
+      </c>
+      <c r="C46" t="n">
+        <v>20.521797</v>
+      </c>
+      <c r="D46" t="n">
+        <v>54.734071</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Тельмана, 24</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf2fac0&gt;</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>63</v>
+      </c>
+      <c r="C47" t="n">
+        <v>20.518922</v>
+      </c>
+      <c r="D47" t="n">
+        <v>54.73327</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Гоголя, 12</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11be8e310&gt;</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>64</v>
+      </c>
+      <c r="C48" t="n">
+        <v>20.42557</v>
+      </c>
+      <c r="D48" t="n">
+        <v>54.772276</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Докука, 51</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>200</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11be8ec70&gt;</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>66</v>
+      </c>
+      <c r="C49" t="n">
+        <v>20.4738</v>
+      </c>
+      <c r="D49" t="n">
+        <v>54.753856</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ген. Челнокова, 61</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11be8e520&gt;</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>67</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20.545279</v>
+      </c>
+      <c r="D50" t="n">
+        <v>54.753477</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Калининград, ул. А. Невского, 205В</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>126</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11be8e220&gt;</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>68</v>
+      </c>
+      <c r="C51" t="n">
+        <v>20.54642</v>
+      </c>
+      <c r="D51" t="n">
+        <v>54.754178</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Б. Окружная 4-я, 74</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>60</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04e9a0&gt;</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>69</v>
+      </c>
+      <c r="C52" t="n">
+        <v>20.545288</v>
+      </c>
+      <c r="D52" t="n">
+        <v>54.75755</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Калининград, ул. А. Невского, 214</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>130</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04ee80&gt;</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>70</v>
+      </c>
+      <c r="C53" t="n">
+        <v>20.57663</v>
+      </c>
+      <c r="D53" t="n">
+        <v>54.674101</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пархоменко, тер. СНТ "О</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>600</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04e490&gt;</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>71</v>
+      </c>
+      <c r="C54" t="n">
+        <v>20.507298</v>
+      </c>
+      <c r="D54" t="n">
+        <v>54.71152</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Ленинский, 30А</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>45</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04ed00&gt;</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>72</v>
+      </c>
+      <c r="C55" t="n">
+        <v>20.501837</v>
+      </c>
+      <c r="D55" t="n">
+        <v>54.696059</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Калининград, пл. Калинина, 23А</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>72</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04e7f0&gt;</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>73</v>
+      </c>
+      <c r="C56" t="n">
+        <v>20.433133</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54.711083</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Калининград, пер. Балтийский, 6</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>140</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04efd0&gt;</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>74</v>
+      </c>
+      <c r="C57" t="n">
+        <v>20.429055</v>
+      </c>
+      <c r="D57" t="n">
+        <v>54.712622</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Победы, 144В</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>120</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04e280&gt;</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>75</v>
+      </c>
+      <c r="C58" t="n">
+        <v>20.435325</v>
+      </c>
+      <c r="D58" t="n">
+        <v>54.710703</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Победы, 168</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>140</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04e640&gt;</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>77</v>
+      </c>
+      <c r="C59" t="n">
+        <v>20.594076</v>
+      </c>
+      <c r="D59" t="n">
+        <v>54.698223</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Лунная, 18</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>150</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04eb20&gt;</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>78</v>
+      </c>
+      <c r="C60" t="n">
+        <v>20.58052</v>
+      </c>
+      <c r="D60" t="n">
+        <v>54.709486</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Р. Зорге, 1</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>25</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04e130&gt;</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>80</v>
+      </c>
+      <c r="C61" t="n">
+        <v>20.580143</v>
+      </c>
+      <c r="D61" t="n">
+        <v>54.708659</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Краснопрудная, 67</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04ec40&gt;</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>81</v>
+      </c>
+      <c r="C62" t="n">
+        <v>20.539251</v>
+      </c>
+      <c r="D62" t="n">
+        <v>54.716487</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ю. Гагарина, 11</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>265</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04e9d0&gt;</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>82</v>
+      </c>
+      <c r="C63" t="n">
+        <v>20.515706</v>
+      </c>
+      <c r="D63" t="n">
+        <v>54.702999</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Октябрьская, 6А</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>266</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04eb50&gt;</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>83</v>
+      </c>
+      <c r="C64" t="n">
+        <v>20.514718</v>
+      </c>
+      <c r="D64" t="n">
+        <v>54.69967</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Багратиона, 24</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>267</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04ed90&gt;</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>84</v>
+      </c>
+      <c r="C65" t="n">
+        <v>20.498001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>54.71721</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Театральная, 33А</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>28</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04ec10&gt;</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>85</v>
+      </c>
+      <c r="C66" t="n">
+        <v>20.508493</v>
+      </c>
+      <c r="D66" t="n">
+        <v>54.699118</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Багратиона, 69</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>29</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04e1c0&gt;</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>86</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20.582478</v>
+      </c>
+      <c r="D67" t="n">
+        <v>54.707874</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Московский, 261</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>45</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c04ed30&gt;</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>88</v>
+      </c>
+      <c r="C68" t="n">
+        <v>20.505735</v>
+      </c>
+      <c r="D68" t="n">
+        <v>54.698983</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Багратиона, 87</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>47</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c056940&gt;</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>89</v>
+      </c>
+      <c r="C69" t="n">
+        <v>20.50516</v>
+      </c>
+      <c r="D69" t="n">
+        <v>54.698952</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Багратиона, 91</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>48</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0563d0&gt;</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>90</v>
+      </c>
+      <c r="C70" t="n">
+        <v>20.521411</v>
+      </c>
+      <c r="D70" t="n">
+        <v>54.708155</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Московский, 74</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>70</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c056730&gt;</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>91</v>
+      </c>
+      <c r="C71" t="n">
+        <v>20.495387</v>
+      </c>
+      <c r="D71" t="n">
+        <v>54.721864</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ушакова, 7</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>71</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0467c0&gt;</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>92</v>
+      </c>
+      <c r="C72" t="n">
+        <v>20.500184</v>
+      </c>
+      <c r="D72" t="n">
+        <v>54.724765</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Уральская, 13</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>72</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0463a0&gt;</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>93</v>
+      </c>
+      <c r="C73" t="n">
+        <v>20.496662</v>
+      </c>
+      <c r="D73" t="n">
+        <v>54.719607</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Мира, 5</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>73</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c046fa0&gt;</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>94</v>
+      </c>
+      <c r="C74" t="n">
+        <v>20.52301</v>
+      </c>
+      <c r="D74" t="n">
+        <v>54.722306</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Калининград, пл. Марш. Василевского, 1А</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>35</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c046610&gt;</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>95</v>
+      </c>
+      <c r="C75" t="n">
+        <v>20.515536</v>
+      </c>
+      <c r="D75" t="n">
+        <v>54.72477</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 118А</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>20</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0170d0&gt;</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>96</v>
+      </c>
+      <c r="C76" t="n">
+        <v>20.570082</v>
+      </c>
+      <c r="D76" t="n">
+        <v>54.703665</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Баженова, 50/2</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>90</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c017910&gt;</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>98</v>
+      </c>
+      <c r="C77" t="n">
+        <v>20.507253</v>
+      </c>
+      <c r="D77" t="n">
+        <v>54.705085</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Ленинский, 83</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>80</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c017280&gt;</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>99</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20.57893</v>
+      </c>
+      <c r="D78" t="n">
+        <v>54.711156</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Кутаисская, 1А</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>81</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c017ac0&gt;</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>100</v>
+      </c>
+      <c r="C79" t="n">
+        <v>20.513604</v>
+      </c>
+      <c r="D79" t="n">
+        <v>54.701522</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Эпроновская, 15Б</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>19</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c017550&gt;</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>101</v>
+      </c>
+      <c r="C80" t="n">
+        <v>20.524699</v>
+      </c>
+      <c r="D80" t="n">
+        <v>54.708451</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Московский, 76</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>240</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c017f70&gt;</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>102</v>
+      </c>
+      <c r="C81" t="n">
+        <v>20.579595</v>
+      </c>
+      <c r="D81" t="n">
+        <v>54.71114</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Аксакова, 100А</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>242</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c017430&gt;</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>103</v>
+      </c>
+      <c r="C82" t="n">
+        <v>20.516551</v>
+      </c>
+      <c r="D82" t="n">
+        <v>54.721567</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Калининград, пр-д Озерный, 1</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>243</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0179d0&gt;</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>105</v>
+      </c>
+      <c r="C83" t="n">
+        <v>20.491497</v>
+      </c>
+      <c r="D83" t="n">
+        <v>54.738302</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Гайдара, 90</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>56</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0176d0&gt;</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>106</v>
+      </c>
+      <c r="C84" t="n">
+        <v>20.505394</v>
+      </c>
+      <c r="D84" t="n">
+        <v>54.723502</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Юношеская, 16</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>57</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0174c0&gt;</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>107</v>
+      </c>
+      <c r="C85" t="n">
+        <v>20.505807</v>
+      </c>
+      <c r="D85" t="n">
+        <v>54.723424</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Юношеская, 10</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>58</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c017190&gt;</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>108</v>
+      </c>
+      <c r="C86" t="n">
+        <v>20.507604</v>
+      </c>
+      <c r="D86" t="n">
+        <v>54.723247</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Юношеская, 2А</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>59</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c017250&gt;</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>109</v>
+      </c>
+      <c r="C87" t="n">
+        <v>20.502349</v>
+      </c>
+      <c r="D87" t="n">
+        <v>54.713642</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Барнаульская, 5</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>20</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c017520&gt;</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>110</v>
+      </c>
+      <c r="C88" t="n">
+        <v>20.537122</v>
+      </c>
+      <c r="D88" t="n">
+        <v>54.709538</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Московский, 162</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>21</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c064f70&gt;</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>111</v>
+      </c>
+      <c r="C89" t="n">
+        <v>20.537634</v>
+      </c>
+      <c r="D89" t="n">
+        <v>54.709283</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Литовский вал, 62</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>22</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0648b0&gt;</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>113</v>
+      </c>
+      <c r="C90" t="n">
+        <v>20.537491</v>
+      </c>
+      <c r="D90" t="n">
+        <v>54.707437</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Литовский вал, 64Г</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>24</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075040&gt;</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>115</v>
+      </c>
+      <c r="C91" t="n">
+        <v>20.499043</v>
+      </c>
+      <c r="D91" t="n">
+        <v>54.71864</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Гвардейский, 1А</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>40</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075f10&gt;</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>116</v>
+      </c>
+      <c r="C92" t="n">
+        <v>20.577268</v>
+      </c>
+      <c r="D92" t="n">
+        <v>54.708191</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Московский, 253</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>41</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075ac0&gt;</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>117</v>
+      </c>
+      <c r="C93" t="n">
+        <v>20.503229</v>
+      </c>
+      <c r="D93" t="n">
+        <v>54.714921</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Барнаульская, 2А</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>11</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075ca0&gt;</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>118</v>
+      </c>
+      <c r="C94" t="n">
+        <v>20.502968</v>
+      </c>
+      <c r="D94" t="n">
+        <v>54.704264</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Портовая, 5</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>25</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075b50&gt;</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>119</v>
+      </c>
+      <c r="C95" t="n">
+        <v>20.492341</v>
+      </c>
+      <c r="D95" t="n">
+        <v>54.716357</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Д. Донского, 3В</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>26</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075670&gt;</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>120</v>
+      </c>
+      <c r="C96" t="n">
+        <v>20.519812</v>
+      </c>
+      <c r="D96" t="n">
+        <v>54.697604</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Дзержинского, 17А</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>80</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075910&gt;</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>121</v>
+      </c>
+      <c r="C97" t="n">
+        <v>20.510245</v>
+      </c>
+      <c r="D97" t="n">
+        <v>54.719971</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Черняховского, 40</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>62</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0759a0&gt;</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>122</v>
+      </c>
+      <c r="C98" t="n">
+        <v>20.492341</v>
+      </c>
+      <c r="D98" t="n">
+        <v>54.716357</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Д. Донского, 3В</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>63</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075580&gt;</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>123</v>
+      </c>
+      <c r="C99" t="n">
+        <v>20.517827</v>
+      </c>
+      <c r="D99" t="n">
+        <v>54.731857</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Тельмана, 7</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075340&gt;</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>124</v>
+      </c>
+      <c r="C100" t="n">
+        <v>20.506059</v>
+      </c>
+      <c r="D100" t="n">
+        <v>54.723392</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Юношеская, 8Б</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>5</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075460&gt;</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>125</v>
+      </c>
+      <c r="C101" t="n">
+        <v>20.506418</v>
+      </c>
+      <c r="D101" t="n">
+        <v>54.703884</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Ленинский, 91</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>15</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075850&gt;</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>126</v>
+      </c>
+      <c r="C102" t="n">
+        <v>20.513317</v>
+      </c>
+      <c r="D102" t="n">
+        <v>54.726694</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ген.-лейт. Озерова, 57</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>8</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075640&gt;</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>127</v>
+      </c>
+      <c r="C103" t="n">
+        <v>20.521653</v>
+      </c>
+      <c r="D103" t="n">
+        <v>54.711858</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Фрунзе, 6В</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>9</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075e50&gt;</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>128</v>
+      </c>
+      <c r="C104" t="n">
+        <v>20.523971</v>
+      </c>
+      <c r="D104" t="n">
+        <v>54.712201</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Фрунзе, 26</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>10</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075220&gt;</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>129</v>
+      </c>
+      <c r="C105" t="n">
+        <v>20.527007</v>
+      </c>
+      <c r="D105" t="n">
+        <v>54.71257</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Фрунзе, 44А</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>11</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c075160&gt;</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>130</v>
+      </c>
+      <c r="C106" t="n">
+        <v>20.501486</v>
+      </c>
+      <c r="D106" t="n">
+        <v>54.72085</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Гаражная, 18</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>12</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0750a0&gt;</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>131</v>
+      </c>
+      <c r="C107" t="n">
+        <v>20.500453</v>
+      </c>
+      <c r="D107" t="n">
+        <v>54.699779</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Серпуховская, 42</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>55</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf49ca0&gt;</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>132</v>
+      </c>
+      <c r="C108" t="n">
+        <v>20.51338</v>
+      </c>
+      <c r="D108" t="n">
+        <v>54.721172</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Проф. Баранова, 5</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>56</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf49d90&gt;</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>133</v>
+      </c>
+      <c r="C109" t="n">
+        <v>20.51082</v>
+      </c>
+      <c r="D109" t="n">
+        <v>54.721692</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Партизанская, 2</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>57</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c124fa0&gt;</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>134</v>
+      </c>
+      <c r="C110" t="n">
+        <v>20.501208</v>
+      </c>
+      <c r="D110" t="n">
+        <v>54.721136</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Калининград, пл. Победы, 4А, стр.1</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>4</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf19b20&gt;</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>135</v>
+      </c>
+      <c r="C111" t="n">
+        <v>20.510757</v>
+      </c>
+      <c r="D111" t="n">
+        <v>54.723512</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ракитная, 1</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0830d0&gt;</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>136</v>
+      </c>
+      <c r="C112" t="n">
+        <v>20.513272</v>
+      </c>
+      <c r="D112" t="n">
+        <v>54.723335</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ракитная, 8</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>6</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c083850&gt;</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>138</v>
+      </c>
+      <c r="C113" t="n">
+        <v>20.514826</v>
+      </c>
+      <c r="D113" t="n">
+        <v>54.723257</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 111</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>8</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c083250&gt;</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>139</v>
+      </c>
+      <c r="C114" t="n">
+        <v>20.511161</v>
+      </c>
+      <c r="D114" t="n">
+        <v>54.679457</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Судостроительная, 114А</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>60</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c083cd0&gt;</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>140</v>
+      </c>
+      <c r="C115" t="n">
+        <v>20.511413</v>
+      </c>
+      <c r="D115" t="n">
+        <v>54.736187</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Беломорская, 15</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>61</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c083fd0&gt;</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>141</v>
+      </c>
+      <c r="C116" t="n">
+        <v>20.451926</v>
+      </c>
+      <c r="D116" t="n">
+        <v>54.711936</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Калининград, пер. Радищева, 4</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>62</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c083eb0&gt;</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>142</v>
+      </c>
+      <c r="C117" t="n">
+        <v>20.506059</v>
+      </c>
+      <c r="D117" t="n">
+        <v>54.723392</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Юношеская, 8Б</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>8</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1c4a60&gt;</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>143</v>
+      </c>
+      <c r="C118" t="n">
+        <v>20.514512</v>
+      </c>
+      <c r="D118" t="n">
+        <v>54.715587</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Сергеева, 7</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>25</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c12edf0&gt;</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>144</v>
+      </c>
+      <c r="C119" t="n">
+        <v>20.508879</v>
+      </c>
+      <c r="D119" t="n">
+        <v>54.724905</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ген.-лейт. Озерова, 47А</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>44</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c124b50&gt;</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>145</v>
+      </c>
+      <c r="C120" t="n">
+        <v>20.518078</v>
+      </c>
+      <c r="D120" t="n">
+        <v>54.720168</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Сергеева, 61</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>19</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c124340&gt;</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>146</v>
+      </c>
+      <c r="C121" t="n">
+        <v>20.518896</v>
+      </c>
+      <c r="D121" t="n">
+        <v>54.719539</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Сергеева, 14</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>19</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c124bb0&gt;</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>147</v>
+      </c>
+      <c r="C122" t="n">
+        <v>20.518186</v>
+      </c>
+      <c r="D122" t="n">
+        <v>54.717605</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Сергеева, 10</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>90</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c124670&gt;</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>148</v>
+      </c>
+      <c r="C123" t="n">
+        <v>20.516596</v>
+      </c>
+      <c r="D123" t="n">
+        <v>54.717792</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Сергеева, 33</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>20</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c10b700&gt;</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>149</v>
+      </c>
+      <c r="C124" t="n">
+        <v>20.515805</v>
+      </c>
+      <c r="D124" t="n">
+        <v>54.71516</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Сергеева, 4</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>21</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c10b580&gt;</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>151</v>
+      </c>
+      <c r="C125" t="n">
+        <v>20.514593</v>
+      </c>
+      <c r="D125" t="n">
+        <v>54.71476</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Сергеева, 2</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>17</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1021c0&gt;</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>152</v>
+      </c>
+      <c r="C126" t="n">
+        <v>20.51841</v>
+      </c>
+      <c r="D126" t="n">
+        <v>54.708175</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Московский, 64</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>18</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c102c70&gt;</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>153</v>
+      </c>
+      <c r="C127" t="n">
+        <v>20.480951</v>
+      </c>
+      <c r="D127" t="n">
+        <v>54.748967</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ген. Челнокова, 58</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>307</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1025e0&gt;</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>154</v>
+      </c>
+      <c r="C128" t="n">
+        <v>20.507253</v>
+      </c>
+      <c r="D128" t="n">
+        <v>54.720085</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Черняховского, 7</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>7</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c03b7f0&gt;</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>155</v>
+      </c>
+      <c r="C129" t="n">
+        <v>20.51152</v>
+      </c>
+      <c r="D129" t="n">
+        <v>54.719763</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Минская, 24</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>8</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c03b7c0&gt;</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>156</v>
+      </c>
+      <c r="C130" t="n">
+        <v>20.501208</v>
+      </c>
+      <c r="D130" t="n">
+        <v>54.721136</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Калининград, пл. Победы, 4А, корп.1</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>34</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0688e0&gt;</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>157</v>
+      </c>
+      <c r="C131" t="n">
+        <v>20.513317</v>
+      </c>
+      <c r="D131" t="n">
+        <v>54.726694</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ген.-лейт. Озерова, 57</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>6</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c068cd0&gt;</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>158</v>
+      </c>
+      <c r="C132" t="n">
+        <v>20.513047</v>
+      </c>
+      <c r="D132" t="n">
+        <v>54.727541</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Азовская, 3Б</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>6</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c068dc0&gt;</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>159</v>
+      </c>
+      <c r="C133" t="n">
+        <v>20.492045</v>
+      </c>
+      <c r="D133" t="n">
+        <v>54.723221</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ш. Руставели, 4</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>16</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188eb0&gt;</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>160</v>
+      </c>
+      <c r="C134" t="n">
+        <v>20.492799</v>
+      </c>
+      <c r="D134" t="n">
+        <v>54.723522</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ш. Руставели, 2</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>6</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1888b0&gt;</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>162</v>
+      </c>
+      <c r="C135" t="n">
+        <v>20.489889</v>
+      </c>
+      <c r="D135" t="n">
+        <v>54.725025</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Чайковского, 36</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>6</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188cd0&gt;</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>163</v>
+      </c>
+      <c r="C136" t="n">
+        <v>20.482271</v>
+      </c>
+      <c r="D136" t="n">
+        <v>54.724417</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Косм. Леонова, 16</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>4</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188c10&gt;</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>164</v>
+      </c>
+      <c r="C137" t="n">
+        <v>20.482056</v>
+      </c>
+      <c r="D137" t="n">
+        <v>54.721089</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Мира, 64А</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>3</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188c70&gt;</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>165</v>
+      </c>
+      <c r="C138" t="n">
+        <v>20.467485</v>
+      </c>
+      <c r="D138" t="n">
+        <v>54.735844</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Марш. Борзова, 67</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>55</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188d00&gt;</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>166</v>
+      </c>
+      <c r="C139" t="n">
+        <v>20.470503</v>
+      </c>
+      <c r="D139" t="n">
+        <v>54.714661</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Д. Донского, 35А</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>9</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188790&gt;</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>167</v>
+      </c>
+      <c r="C140" t="n">
+        <v>20.469012</v>
+      </c>
+      <c r="D140" t="n">
+        <v>54.715535</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Д. Донского, 44А</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>21</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188fd0&gt;</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>168</v>
+      </c>
+      <c r="C141" t="n">
+        <v>20.486008</v>
+      </c>
+      <c r="D141" t="n">
+        <v>54.717303</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Свободная, 32</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>31</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188f10&gt;</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>169</v>
+      </c>
+      <c r="C142" t="n">
+        <v>20.474815</v>
+      </c>
+      <c r="D142" t="n">
+        <v>54.720122</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Е. Ковальчук, 2А</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>11</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188220&gt;</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>170</v>
+      </c>
+      <c r="C143" t="n">
+        <v>20.474815</v>
+      </c>
+      <c r="D143" t="n">
+        <v>54.720122</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Е. Ковальчук, 4</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188100&gt;</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>171</v>
+      </c>
+      <c r="C144" t="n">
+        <v>20.528975</v>
+      </c>
+      <c r="D144" t="n">
+        <v>54.717142</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пионерская, 36</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>19</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1880d0&gt;</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>172</v>
+      </c>
+      <c r="C145" t="n">
+        <v>20.473656</v>
+      </c>
+      <c r="D145" t="n">
+        <v>54.717064</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пушкина, 13</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>22</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c1884f0&gt;</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>173</v>
+      </c>
+      <c r="C146" t="n">
+        <v>20.472722</v>
+      </c>
+      <c r="D146" t="n">
+        <v>54.718946</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Победы, 8</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>33</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188a30&gt;</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>174</v>
+      </c>
+      <c r="C147" t="n">
+        <v>20.471527</v>
+      </c>
+      <c r="D147" t="n">
+        <v>54.718281</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Калининград, ул. М. Расковой, 10</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>16</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c188a00&gt;</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>175</v>
+      </c>
+      <c r="C148" t="n">
+        <v>20.470746</v>
+      </c>
+      <c r="D148" t="n">
+        <v>54.717922</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Победы, 12</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>30</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f7f0&gt;</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>176</v>
+      </c>
+      <c r="C149" t="n">
+        <v>20.469407</v>
+      </c>
+      <c r="D149" t="n">
+        <v>54.717272</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Победы, 18Б</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>12</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f1c0&gt;</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>177</v>
+      </c>
+      <c r="C150" t="n">
+        <v>20.469039</v>
+      </c>
+      <c r="D150" t="n">
+        <v>54.717095</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Победы, 18</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>22</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f100&gt;</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>178</v>
+      </c>
+      <c r="C151" t="n">
+        <v>20.499851</v>
+      </c>
+      <c r="D151" t="n">
+        <v>54.741582</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Дорожная, 45</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>31</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f640&gt;</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>179</v>
+      </c>
+      <c r="C152" t="n">
+        <v>20.596187</v>
+      </c>
+      <c r="D152" t="n">
+        <v>54.707874</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Б. Окружная, 15</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>32</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f8e0&gt;</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>181</v>
+      </c>
+      <c r="C153" t="n">
+        <v>20.488182</v>
+      </c>
+      <c r="D153" t="n">
+        <v>54.749803</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Согласия, 44</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>61</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f130&gt;</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>182</v>
+      </c>
+      <c r="C154" t="n">
+        <v>20.557155</v>
+      </c>
+      <c r="D154" t="n">
+        <v>54.714614</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Суздальская, 12</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>210</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f4c0&gt;</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>183</v>
+      </c>
+      <c r="C155" t="n">
+        <v>20.553597</v>
+      </c>
+      <c r="D155" t="n">
+        <v>54.705132</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ялтинская, 73</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>59</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f4f0&gt;</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>184</v>
+      </c>
+      <c r="C156" t="n">
+        <v>20.507694</v>
+      </c>
+      <c r="D156" t="n">
+        <v>54.725129</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Ген.-лейт. Озерова, 45</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>42</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f400&gt;</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>185</v>
+      </c>
+      <c r="C157" t="n">
+        <v>20.485694</v>
+      </c>
+      <c r="D157" t="n">
+        <v>54.752178</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Согласия, 50</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>55</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02fa00&gt;</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>186</v>
+      </c>
+      <c r="C158" t="n">
+        <v>20.499725</v>
+      </c>
+      <c r="D158" t="n">
+        <v>54.71268</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Вагнера, 58</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>45</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02fac0&gt;</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>188</v>
+      </c>
+      <c r="C159" t="n">
+        <v>20.519354</v>
+      </c>
+      <c r="D159" t="n">
+        <v>54.689867</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Мукомольная, 14</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>261</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02fb80&gt;</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>189</v>
+      </c>
+      <c r="C160" t="n">
+        <v>20.504055</v>
+      </c>
+      <c r="D160" t="n">
+        <v>54.707426</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Марш. Баграмяна, 2А</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>26</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02fc40&gt;</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>190</v>
+      </c>
+      <c r="C161" t="n">
+        <v>20.469542</v>
+      </c>
+      <c r="D161" t="n">
+        <v>54.692984</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Калининград, ул. А. Суворова, 46А</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>41</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02fd00&gt;</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>191</v>
+      </c>
+      <c r="C162" t="n">
+        <v>20.50781</v>
+      </c>
+      <c r="D162" t="n">
+        <v>54.703696</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Ленинский, 85Б</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>42</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02fdc0&gt;</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>194</v>
+      </c>
+      <c r="C163" t="n">
+        <v>20.466425</v>
+      </c>
+      <c r="D163" t="n">
+        <v>54.713143</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Каштановая аллея, 4</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>20</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02fe80&gt;</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>196</v>
+      </c>
+      <c r="C164" t="n">
+        <v>20.508304</v>
+      </c>
+      <c r="D164" t="n">
+        <v>54.704992</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Ленинский, 83Е</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>11</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02ff40&gt;</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>197</v>
+      </c>
+      <c r="C165" t="n">
+        <v>20.511736</v>
+      </c>
+      <c r="D165" t="n">
+        <v>54.703962</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Калининград, наб. Старопрегольская, 10Б</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>21</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f730&gt;</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>198</v>
+      </c>
+      <c r="C166" t="n">
+        <v>20.513461</v>
+      </c>
+      <c r="D166" t="n">
+        <v>54.703499</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Эпроновская, 31</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>26</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f3d0&gt;</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>199</v>
+      </c>
+      <c r="C167" t="n">
+        <v>20.486341</v>
+      </c>
+      <c r="D167" t="n">
+        <v>54.70816</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Калининград, наб. Правая, 10</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>35</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c02f310&gt;</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>200</v>
+      </c>
+      <c r="C168" t="n">
+        <v>20.515653</v>
+      </c>
+      <c r="D168" t="n">
+        <v>54.722316</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 98</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>46</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0252e0&gt;</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>201</v>
+      </c>
+      <c r="C169" t="n">
+        <v>20.514952</v>
+      </c>
+      <c r="D169" t="n">
+        <v>54.706136</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Октябрьская, 3</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>47</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0309d0&gt;</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>203</v>
+      </c>
+      <c r="C170" t="n">
+        <v>20.513209</v>
+      </c>
+      <c r="D170" t="n">
+        <v>54.703244</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Эпроновская, 29</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>4</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0306d0&gt;</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>204</v>
+      </c>
+      <c r="C171" t="n">
+        <v>20.513703</v>
+      </c>
+      <c r="D171" t="n">
+        <v>54.702292</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Эпроновская, 12</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>7</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0304f0&gt;</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>205</v>
+      </c>
+      <c r="C172" t="n">
+        <v>20.513137</v>
+      </c>
+      <c r="D172" t="n">
+        <v>54.702833</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Эпроновская, 25</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>8</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030850&gt;</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>206</v>
+      </c>
+      <c r="C173" t="n">
+        <v>20.511952</v>
+      </c>
+      <c r="D173" t="n">
+        <v>54.704394</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Калининград, наб. Старопрегольская, 18</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>33</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030160&gt;</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>207</v>
+      </c>
+      <c r="C174" t="n">
+        <v>20.515302</v>
+      </c>
+      <c r="D174" t="n">
+        <v>54.703353</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Калининград, наб. Ветеранов, 2</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>6</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030640&gt;</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>208</v>
+      </c>
+      <c r="C175" t="n">
+        <v>20.487158</v>
+      </c>
+      <c r="D175" t="n">
+        <v>54.750707</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Согласия, 46</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>7</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030730&gt;</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>209</v>
+      </c>
+      <c r="C176" t="n">
+        <v>20.479738</v>
+      </c>
+      <c r="D176" t="n">
+        <v>54.707785</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Магнитная, 1, корп.1</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>27</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030880&gt;</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>210</v>
+      </c>
+      <c r="C177" t="n">
+        <v>20.508915</v>
+      </c>
+      <c r="D177" t="n">
+        <v>54.690632</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Железнодорожная, 3А</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>15</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0309a0&gt;</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>211</v>
+      </c>
+      <c r="C178" t="n">
+        <v>20.515042</v>
+      </c>
+      <c r="D178" t="n">
+        <v>54.714682</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Сергеева, 2Б</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>6</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030b20&gt;</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>212</v>
+      </c>
+      <c r="C179" t="n">
+        <v>20.511889</v>
+      </c>
+      <c r="D179" t="n">
+        <v>54.713273</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 23</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>31</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030af0&gt;</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>213</v>
+      </c>
+      <c r="C180" t="n">
+        <v>20.514691</v>
+      </c>
+      <c r="D180" t="n">
+        <v>54.72073</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 90</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030ca0&gt;</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>214</v>
+      </c>
+      <c r="C181" t="n">
+        <v>20.515221</v>
+      </c>
+      <c r="D181" t="n">
+        <v>54.723751</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 117</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030e20&gt;</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>215</v>
+      </c>
+      <c r="C182" t="n">
+        <v>20.514826</v>
+      </c>
+      <c r="D182" t="n">
+        <v>54.723257</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 111</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030eb0&gt;</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>216</v>
+      </c>
+      <c r="C183" t="n">
+        <v>20.515159</v>
+      </c>
+      <c r="D183" t="n">
+        <v>54.723522</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 113</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0300d0&gt;</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>217</v>
+      </c>
+      <c r="C184" t="n">
+        <v>20.515203</v>
+      </c>
+      <c r="D184" t="n">
+        <v>54.724084</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 121</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030d60&gt;</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>218</v>
+      </c>
+      <c r="C185" t="n">
+        <v>20.514853</v>
+      </c>
+      <c r="D185" t="n">
+        <v>54.724578</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 125</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>2</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0300a0&gt;</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>219</v>
+      </c>
+      <c r="C186" t="n">
+        <v>20.51435</v>
+      </c>
+      <c r="D186" t="n">
+        <v>54.725139</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 131</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>3</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030dc0&gt;</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>220</v>
+      </c>
+      <c r="C187" t="n">
+        <v>20.514593</v>
+      </c>
+      <c r="D187" t="n">
+        <v>54.724874</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Пролетарская, 129</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>4</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030f40&gt;</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>221</v>
+      </c>
+      <c r="C188" t="n">
+        <v>20.467063</v>
+      </c>
+      <c r="D188" t="n">
+        <v>54.715493</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Победы, 37</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>26</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c030310&gt;</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>222</v>
+      </c>
+      <c r="C189" t="n">
+        <v>20.46806</v>
+      </c>
+      <c r="D189" t="n">
+        <v>54.716024</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Победы, 31</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>25</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf3c130&gt;</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>223</v>
+      </c>
+      <c r="C190" t="n">
+        <v>20.474815</v>
+      </c>
+      <c r="D190" t="n">
+        <v>54.720122</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Е. Ковальчук, 2А</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>20</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf3c310&gt;</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>225</v>
+      </c>
+      <c r="C191" t="n">
+        <v>20.493204</v>
+      </c>
+      <c r="D191" t="n">
+        <v>54.718619</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Мира, 13</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>20</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf3c040&gt;</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>226</v>
+      </c>
+      <c r="C192" t="n">
+        <v>20.558466</v>
+      </c>
+      <c r="D192" t="n">
+        <v>54.711634</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Московский, 183В</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>153</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf3cdc0&gt;</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>227</v>
+      </c>
+      <c r="C193" t="n">
+        <v>20.470997</v>
+      </c>
+      <c r="D193" t="n">
+        <v>54.715254</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Д. Донского, 34</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>16</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11bf3c6d0&gt;</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>228</v>
+      </c>
+      <c r="C194" t="n">
+        <v>20.517835</v>
+      </c>
+      <c r="D194" t="n">
+        <v>54.709283</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Калининград, пр-кт Московский, 83</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>25</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c022040&gt;</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>231</v>
+      </c>
+      <c r="C195" t="n">
+        <v>20.520647</v>
+      </c>
+      <c r="D195" t="n">
+        <v>54.71333</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Фрунзе, 17</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>18</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c022ee0&gt;</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>232</v>
+      </c>
+      <c r="C196" t="n">
+        <v>20.520396</v>
+      </c>
+      <c r="D196" t="n">
+        <v>54.713403</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Клиническая, 6</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>14</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c022760&gt;</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>233</v>
+      </c>
+      <c r="C197" t="n">
+        <v>20.468734</v>
+      </c>
+      <c r="D197" t="n">
+        <v>54.682419</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Садовая, 5</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>67</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0223a0&gt;</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>234</v>
+      </c>
+      <c r="C198" t="n">
+        <v>20.509077</v>
+      </c>
+      <c r="D198" t="n">
+        <v>54.70237</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Краснооктябрьская, 13</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c0220a0&gt;</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>235</v>
+      </c>
+      <c r="C199" t="n">
+        <v>20.472587</v>
+      </c>
+      <c r="D199" t="n">
+        <v>54.714484</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Калининград, ул. Д. Донского, 27</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>31</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>&lt;django.db.models.base.ModelState object at 0x11c022e80&gt;</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>236</v>
+      </c>
+      <c r="C200" t="n">
+        <v>20.483735</v>
+      </c>
+      <c r="D200" t="n">
+        <v>54.719316</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Калининград, пер. Серж. Колоскова, 1В</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>50</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/parkingapp/static/data.xlsx
+++ b/parkingapp/static/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1062">
   <si>
     <t>_state</t>
   </si>
@@ -54,613 +54,613 @@
     <t>reg_num</t>
   </si>
   <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1163e14c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1163e1c10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1163e1910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1165d2670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1165d2a30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1165d28b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116589970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116589fa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1165891f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116589b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116492580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1163cbd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1164c1f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1165748b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1163c32e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11645a8e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11645a4f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1165c99d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1165c9fa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1165c9f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1165c97c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1165c9670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166080d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166083d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166086d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166089d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608a90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608c10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608cd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608d90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116608fd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a0d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a3d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a6d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660a9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660aa90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ab50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ac10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660acd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ad90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ae50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660af10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660afd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166090d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166093d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166096d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166099d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609a90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609c10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609cd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609d90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116609fd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c0d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c3d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1164b64c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116546eb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1163db4c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1163db3a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1163db910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1163db7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1163db730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1164bb760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1164bbd90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c4f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c5b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c8b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ca30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660caf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660cbb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660cc70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660cd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660cdf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ceb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660cf70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660c490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e1f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e2b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e4f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e5b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e8b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ea30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660eaf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ebb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ec70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ed30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660edf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660eeb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ef70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660e040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f1f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f2b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f4f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f5b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f8b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660fa30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660faf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660fbb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660fc70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660fd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660fdf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660feb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660ff70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11660f040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166101f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166102b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166104f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166105b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166107f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166108b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610a30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610af0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610bb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610c70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610df0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610eb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610f70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116610040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166121f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166122b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166124f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166125b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166127f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166128b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612a30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612af0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612bb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612c70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612df0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612eb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612f70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116612040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116614130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166141f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1166142b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x116614370&gt;</t>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1016690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C10170D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C10156D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0AFD250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD3C10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD3910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD3E90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD1E50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD3FD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD3F90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD2A10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD3AD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD0810&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD3390&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD2D10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD1DD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD1BD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD0B50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD1E90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD0290&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD1690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD1210&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FD0950&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FB85D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FB9A50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FB9E50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FBA8D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FBB550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FBBA90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FBA450&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F5B2D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F5B950&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE5B90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE5210&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE5A10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE5C10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE4BD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE4710&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE6650&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE6F50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE79D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE63D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE7190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE5710&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE6CD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE5550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE64D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE5250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE5CD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE5810&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE5590&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE46D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE4C50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE4A10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE4450&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FE5010&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCA590&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC8050&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC8590&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC8F90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCB490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCA5D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC9450&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCB890&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCB850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCBE10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCBB50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCB810&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCB1D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCB110&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCAE90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCAB50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCA650&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCA350&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCA110&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC8C10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC9750&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC9050&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC8690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCAB10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FCAB90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F49B90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F49A10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F49CD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F49D50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F49DD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F49E50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F49ED0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F49F50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F49FD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F4A050&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F48DD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F4D0D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0F4FD10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100A410&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100A1D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100B790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100AD50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1009350&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1008F50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100AD10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1008D50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1008D90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1008C90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1009950&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100A390&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100B3D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100B210&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1009690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100A590&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1009A50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1009C50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100AA50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1009290&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100A490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1008B50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1009D10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1009D50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100A5D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100A450&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100A210&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1009B10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1009790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C1008E50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C100AA90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC4ED0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC5610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC7310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC5550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC7350&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC48D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC4A10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC4310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC5F90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC5850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC6090&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC4790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC6390&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC4190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC6F90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC6B90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC7C90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC7410&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC7210&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC5D10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC6B10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC5ED0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC5490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC4610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC4C50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC5B10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC5050&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC5210&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC4F90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC5650&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC4E10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC45D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C0FC6E50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F050&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F090&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F150&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F110&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127FB90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127FC10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F7D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F890&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127DE10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127DD10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127DD90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127DE50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127FA90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F990&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127FA10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127FAD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127ED50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127EC50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127ECD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127ED90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F510&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F590&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F650&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127E710&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127E610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127E690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127E750&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127FED0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127FDD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127FE50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127FF10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127DBD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127DAD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127DB50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127DC10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127D2D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127D1D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127D250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127D310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127EE50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127EED0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127EF50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F3D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C127F2D0&gt;</t>
   </si>
   <si>
     <t>Калининград, ул. Пролетарская, 113</t>
@@ -1818,7 +1818,7 @@
     <t>5133806</t>
   </si>
   <si>
-    <t>6751807</t>
+    <t>5269807</t>
   </si>
   <si>
     <t>oQVnywG5wIL5M64crIKt7X8TwRWmscaZvFRbBMGo3dH2IjJrurAL22VpB4biiZB2JN4kr2Ec1ra30B8hi5iaAXeTB1vbC5YtFXrv</t>
@@ -3060,16 +3060,19 @@
     <t>benefit</t>
   </si>
   <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x1163072e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11659bd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11659b670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11659b2b0&gt;</t>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C145E490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C145E650&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C145E6D0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C145E790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C145E850&gt;</t>
   </si>
   <si>
     <t>password</t>
@@ -3132,22 +3135,22 @@
     <t>parking_lot_view</t>
   </si>
   <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11659bc70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11659b910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11659ba00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11659b7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;django.db.models.base.ModelState object at 0x11659b340&gt;</t>
-  </si>
-  <si>
-    <t>pbkdf2_sha256$390000$dbeNHRxrd3MvcLfudAuy3Y$aubJ4BH/lpkpiErSLUn6+3qluRTgw1VZWTXhN4Z+gh0=</t>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C146AA50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C146AAD0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C146AB50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C146AD90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;django.db.models.base.ModelState object at 0x00000253C146AE10&gt;</t>
+  </si>
+  <si>
+    <t>pbkdf2_sha256$720000$u45MAe5SZtf6ZrvYKcvdPF$P592sP+s/p8UTGEj1mD3jU5vMT8kp5+gKNZPL0XP+qY=</t>
   </si>
   <si>
     <t>pbkdf2_sha256$390000$QRe4G6MkxUunyUSIO1ypTa$Ylm1sM6preqL21PwdW01mNm/Ul3XKM7BF2IsYAgLsrA=</t>
@@ -11325,7 +11328,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11472,17 +11475,52 @@
       <c r="E5" s="2">
         <v>45327</v>
       </c>
+      <c r="F5" s="2">
+        <v>45328</v>
+      </c>
       <c r="G5" s="2">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9360</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5">
         <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45349</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45349</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -11506,78 +11544,78 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D2" s="2">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -11595,7 +11633,7 @@
         <v>1111</v>
       </c>
       <c r="M2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="N2" t="s">
         <v>924</v>
@@ -11627,13 +11665,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D3" s="2">
         <v>45340</v>
@@ -11654,16 +11692,16 @@
         <v>6666</v>
       </c>
       <c r="M3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="N3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="O3" t="s">
         <v>924</v>
       </c>
       <c r="P3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -11686,13 +11724,13 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D4" s="2">
         <v>45329</v>
@@ -11713,16 +11751,16 @@
         <v>1112</v>
       </c>
       <c r="M4" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N4" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="O4" t="s">
         <v>924</v>
       </c>
       <c r="P4" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
@@ -11745,13 +11783,13 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -11769,16 +11807,16 @@
         <v>4320</v>
       </c>
       <c r="M5" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="N5" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="O5" t="s">
         <v>924</v>
       </c>
       <c r="P5" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -11801,13 +11839,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -11825,16 +11863,16 @@
         <v>4534</v>
       </c>
       <c r="M6" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="N6" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="O6" t="s">
         <v>924</v>
       </c>
       <c r="P6" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
